--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c101_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c101_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3304" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -563,10 +575,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -610,28 +622,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="2">
+      <c r="C17" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -656,28 +668,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -765,10 +777,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -812,28 +824,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -858,28 +870,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -967,10 +979,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1014,28 +1026,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="2">
+      <c r="C31" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1060,28 +1072,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1169,10 +1181,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1216,28 +1228,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1262,28 +1274,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1371,10 +1383,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1418,28 +1430,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1464,28 +1476,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1631,10 +1643,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1678,28 +1690,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="2">
+      <c r="C54" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1724,28 +1736,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1862,10 +1874,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="2" t="s">
+      <c r="J60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1909,28 +1921,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="2">
+      <c r="C62" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1955,28 +1967,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="2">
+      <c r="I64" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2064,10 +2076,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2111,28 +2123,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2157,28 +2169,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2295,10 +2307,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="2" t="s">
+      <c r="J75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2342,28 +2354,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="2">
+      <c r="C77" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2388,28 +2400,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="2">
+      <c r="I79" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2555,10 +2567,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2602,28 +2614,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2648,28 +2660,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2757,10 +2769,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2804,28 +2816,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2850,28 +2862,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2988,10 +3000,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3035,28 +3047,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3081,28 +3093,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3248,10 +3260,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="2" t="s">
+      <c r="J108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3295,28 +3307,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="2">
+      <c r="C110" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3341,28 +3353,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3450,10 +3462,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="J115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3497,28 +3509,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="2">
+      <c r="C117" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3543,28 +3555,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3623,10 +3635,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3670,28 +3682,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="2">
+      <c r="C123" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3716,28 +3728,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3883,10 +3895,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="2" t="s">
+      <c r="J130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3930,28 +3942,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="2">
+      <c r="C132" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3976,28 +3988,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4085,10 +4097,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="2" t="s">
+      <c r="J137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4132,28 +4144,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="2">
+      <c r="A139" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="2">
+      <c r="C139" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4178,28 +4190,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="2">
+      <c r="I141" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4345,10 +4357,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4392,28 +4404,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4438,28 +4450,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4547,10 +4559,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="2" t="s">
+      <c r="J153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4594,28 +4606,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="2">
+      <c r="A155" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="2">
+      <c r="C155" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4640,28 +4652,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="C157" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="2">
+      <c r="D157" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="2">
+      <c r="I157" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4807,10 +4819,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4854,28 +4866,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4900,28 +4912,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5038,10 +5050,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5085,28 +5097,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5131,28 +5143,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5298,10 +5310,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="2" t="s">
+      <c r="J179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5345,28 +5357,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="2">
+      <c r="C181" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5391,28 +5403,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5529,10 +5541,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5576,28 +5588,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5622,28 +5634,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5702,10 +5714,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5749,28 +5761,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5795,28 +5807,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5962,10 +5974,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="2" t="s">
+      <c r="J202" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6009,28 +6021,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="2">
+      <c r="A204" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="2">
+      <c r="C204" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6055,28 +6067,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="2">
+      <c r="C206" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="2">
+      <c r="D206" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="2">
+      <c r="I206" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6164,10 +6176,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="2" t="s">
+      <c r="J209" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6211,28 +6223,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="2">
+      <c r="A211" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="2">
+      <c r="C211" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6257,28 +6269,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="2">
+      <c r="C213" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="2">
+      <c r="D213" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="2">
+      <c r="I213" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6395,10 +6407,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="2" t="s">
+      <c r="J217" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6442,28 +6454,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="2">
+      <c r="A219" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="2">
+      <c r="C219" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6488,28 +6500,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="2">
+      <c r="C221" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="2">
+      <c r="D221" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="2">
+      <c r="I221" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6568,10 +6580,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="2" t="s">
+      <c r="J223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6615,28 +6627,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
+      <c r="A225" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="2">
+      <c r="C225" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6661,28 +6673,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="2">
+      <c r="I227" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6770,10 +6782,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6817,28 +6829,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6863,28 +6875,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6972,10 +6984,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="2" t="s">
+      <c r="J237" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7019,28 +7031,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="2">
+      <c r="A239" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="2">
+      <c r="C239" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7065,28 +7077,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="2">
+      <c r="C241" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="2">
+      <c r="D241" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="2">
+      <c r="I241" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7145,10 +7157,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="2" t="s">
+      <c r="J243" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7192,28 +7204,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="2">
+      <c r="A245" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="2">
+      <c r="C245" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7238,28 +7250,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="2">
+      <c r="C247" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="2">
+      <c r="D247" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="2">
+      <c r="I247" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7347,10 +7359,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="2" t="s">
+      <c r="J250" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7394,28 +7406,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
+      <c r="A252" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="2">
+      <c r="C252" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7440,28 +7452,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="2">
+      <c r="C254" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="2">
+      <c r="D254" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="2">
+      <c r="I254" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7520,10 +7532,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="2" t="s">
+      <c r="J256" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7567,28 +7579,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="2">
+      <c r="A258" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="2">
+      <c r="C258" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7613,28 +7625,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="2">
+      <c r="C260" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="2">
+      <c r="D260" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="2">
+      <c r="I260" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7693,10 +7705,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="2" t="s">
+      <c r="J262" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7740,28 +7752,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="2">
+      <c r="A264" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="2">
+      <c r="C264" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7786,28 +7798,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="2">
+      <c r="C266" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="2">
+      <c r="D266" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="2">
+      <c r="I266" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7895,10 +7907,10 @@
       <c r="I269">
         <f>((C269-C268)^2+(D269- D268)^2)^.5</f>
       </c>
-      <c r="J269" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K269" s="2" t="s">
+      <c r="J269" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K269" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L269" t="n">
@@ -7942,28 +7954,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="s" s="2">
+      <c r="A271" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C271" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D271" t="s" s="2">
+      <c r="C271" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D271" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7988,28 +8000,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="B273" t="s" s="2">
+      <c r="B273" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C273" t="s" s="2">
+      <c r="C273" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D273" t="s" s="2">
+      <c r="D273" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E273" t="s" s="2">
+      <c r="E273" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F273" t="s" s="2">
+      <c r="F273" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G273" t="s" s="2">
+      <c r="G273" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H273" t="s" s="2">
+      <c r="H273" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I273" t="s" s="2">
+      <c r="I273" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8068,10 +8080,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="2" t="s">
+      <c r="J275" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8115,28 +8127,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="2">
+      <c r="A277" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="2">
+      <c r="C277" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8161,28 +8173,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="2">
+      <c r="C279" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="2">
+      <c r="D279" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="2">
+      <c r="I279" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8328,10 +8340,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="2" t="s">
+      <c r="J284" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8375,28 +8387,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="2">
+      <c r="A286" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="2">
+      <c r="C286" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8421,28 +8433,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="2">
+      <c r="C288" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="2">
+      <c r="D288" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="2">
+      <c r="I288" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8501,10 +8513,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="2" t="s">
+      <c r="J290" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8548,28 +8560,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="2">
+      <c r="A292" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="2">
+      <c r="C292" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8594,28 +8606,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="2">
+      <c r="C294" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="2">
+      <c r="D294" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="2">
+      <c r="I294" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8674,10 +8686,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="2" t="s">
+      <c r="J296" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
@@ -8721,28 +8733,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="s" s="2">
+      <c r="A298" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B298" t="s" s="2">
+      <c r="B298" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C298" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D298" t="s" s="2">
+      <c r="C298" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E298" t="s" s="2">
+      <c r="E298" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F298" t="s" s="2">
+      <c r="F298" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G298" t="s" s="2">
+      <c r="G298" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H298" t="s" s="2">
+      <c r="H298" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8767,28 +8779,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="B300" t="s" s="2">
+      <c r="B300" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C300" t="s" s="2">
+      <c r="C300" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D300" t="s" s="2">
+      <c r="D300" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E300" t="s" s="2">
+      <c r="E300" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F300" t="s" s="2">
+      <c r="F300" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G300" t="s" s="2">
+      <c r="G300" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H300" t="s" s="2">
+      <c r="H300" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I300" t="s" s="2">
+      <c r="I300" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8847,10 +8859,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="2" t="s">
+      <c r="J302" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8894,28 +8906,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="2">
+      <c r="A304" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="2">
+      <c r="C304" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8940,28 +8952,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="2">
+      <c r="C306" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="2">
+      <c r="D306" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="2">
+      <c r="I306" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9020,10 +9032,10 @@
       <c r="I308">
         <f>((C308-C307)^2+(D308- D307)^2)^.5</f>
       </c>
-      <c r="J308" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K308" s="2" t="s">
+      <c r="J308" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K308" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L308" t="n">
@@ -9067,28 +9079,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s" s="2">
+      <c r="A310" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B310" t="s" s="2">
+      <c r="B310" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C310" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D310" t="s" s="2">
+      <c r="C310" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E310" t="s" s="2">
+      <c r="E310" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F310" t="s" s="2">
+      <c r="F310" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G310" t="s" s="2">
+      <c r="G310" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H310" t="s" s="2">
+      <c r="H310" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9113,28 +9125,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="B312" t="s" s="2">
+      <c r="B312" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C312" t="s" s="2">
+      <c r="C312" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D312" t="s" s="2">
+      <c r="D312" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E312" t="s" s="2">
+      <c r="E312" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F312" t="s" s="2">
+      <c r="F312" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G312" t="s" s="2">
+      <c r="G312" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H312" t="s" s="2">
+      <c r="H312" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I312" t="s" s="2">
+      <c r="I312" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9193,10 +9205,10 @@
       <c r="I314">
         <f>((C314-C313)^2+(D314- D313)^2)^.5</f>
       </c>
-      <c r="J314" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K314" s="2" t="s">
+      <c r="J314" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K314" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L314" t="n">
@@ -9240,28 +9252,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="s" s="2">
+      <c r="A316" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B316" t="s" s="2">
+      <c r="B316" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C316" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D316" t="s" s="2">
+      <c r="C316" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D316" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E316" t="s" s="2">
+      <c r="E316" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F316" t="s" s="2">
+      <c r="F316" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G316" t="s" s="2">
+      <c r="G316" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H316" t="s" s="2">
+      <c r="H316" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9286,28 +9298,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="B318" t="s" s="2">
+      <c r="B318" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C318" t="s" s="2">
+      <c r="C318" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D318" t="s" s="2">
+      <c r="D318" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E318" t="s" s="2">
+      <c r="E318" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F318" t="s" s="2">
+      <c r="F318" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G318" t="s" s="2">
+      <c r="G318" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H318" t="s" s="2">
+      <c r="H318" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I318" t="s" s="2">
+      <c r="I318" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9366,10 +9378,10 @@
       <c r="I320">
         <f>((C320-C319)^2+(D320- D319)^2)^.5</f>
       </c>
-      <c r="J320" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K320" s="2" t="s">
+      <c r="J320" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K320" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L320" t="n">
@@ -9413,28 +9425,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="s" s="2">
+      <c r="A322" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B322" t="s" s="2">
+      <c r="B322" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C322" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D322" t="s" s="2">
+      <c r="C322" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D322" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E322" t="s" s="2">
+      <c r="E322" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F322" t="s" s="2">
+      <c r="F322" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G322" t="s" s="2">
+      <c r="G322" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H322" t="s" s="2">
+      <c r="H322" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9459,28 +9471,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="B324" t="s" s="2">
+      <c r="B324" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C324" t="s" s="2">
+      <c r="C324" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D324" t="s" s="2">
+      <c r="D324" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E324" t="s" s="2">
+      <c r="E324" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F324" t="s" s="2">
+      <c r="F324" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G324" t="s" s="2">
+      <c r="G324" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H324" t="s" s="2">
+      <c r="H324" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I324" t="s" s="2">
+      <c r="I324" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9539,10 +9551,10 @@
       <c r="I326">
         <f>((C326-C325)^2+(D326- D325)^2)^.5</f>
       </c>
-      <c r="J326" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K326" s="2" t="s">
+      <c r="J326" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K326" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L326" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c101_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c101_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3304" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9912" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -373,10 +421,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="J8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -420,28 +468,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="4">
+      <c r="A10" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="4">
+      <c r="B10" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="4">
+      <c r="C10" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="4">
+      <c r="E10" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="4">
+      <c r="F10" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="4">
+      <c r="G10" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="4">
+      <c r="H10" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -466,28 +514,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="4">
+      <c r="B12" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="4">
+      <c r="C12" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="4">
+      <c r="D12" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="4">
+      <c r="E12" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="4">
+      <c r="F12" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="4">
+      <c r="G12" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="4">
+      <c r="H12" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="4">
+      <c r="I12" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -575,10 +623,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="4" t="s">
+      <c r="J15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -622,28 +670,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="4">
+      <c r="A17" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="4">
+      <c r="B17" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="4">
+      <c r="C17" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="4">
+      <c r="E17" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="4">
+      <c r="F17" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="4">
+      <c r="G17" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="4">
+      <c r="H17" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -668,28 +716,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="4">
+      <c r="B19" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="4">
+      <c r="C19" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="4">
+      <c r="D19" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="4">
+      <c r="E19" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="4">
+      <c r="F19" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="4">
+      <c r="G19" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="4">
+      <c r="H19" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="4">
+      <c r="I19" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -777,10 +825,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="4" t="s">
+      <c r="J22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -824,28 +872,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="4">
+      <c r="A24" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="4">
+      <c r="B24" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="4">
+      <c r="C24" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="4">
+      <c r="E24" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="4">
+      <c r="F24" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="4">
+      <c r="G24" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="4">
+      <c r="H24" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -870,28 +918,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="4">
+      <c r="B26" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="4">
+      <c r="C26" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="4">
+      <c r="D26" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="4">
+      <c r="E26" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="4">
+      <c r="F26" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="4">
+      <c r="G26" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="4">
+      <c r="H26" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="4">
+      <c r="I26" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -979,10 +1027,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="4" t="s">
+      <c r="J29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1026,28 +1074,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="4">
+      <c r="A31" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="4">
+      <c r="B31" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="4">
+      <c r="C31" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="4">
+      <c r="E31" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="4">
+      <c r="F31" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="4">
+      <c r="G31" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="4">
+      <c r="H31" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1072,28 +1120,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="4">
+      <c r="B33" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="4">
+      <c r="C33" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="4">
+      <c r="D33" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="4">
+      <c r="E33" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="4">
+      <c r="F33" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="4">
+      <c r="G33" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="4">
+      <c r="H33" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="4">
+      <c r="I33" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1181,10 +1229,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="4" t="s">
+      <c r="J36" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1228,28 +1276,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="4">
+      <c r="A38" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="4">
+      <c r="B38" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="4">
+      <c r="C38" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="4">
+      <c r="E38" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="4">
+      <c r="F38" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="4">
+      <c r="G38" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="4">
+      <c r="H38" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1274,28 +1322,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="4">
+      <c r="B40" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="4">
+      <c r="C40" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="4">
+      <c r="D40" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="4">
+      <c r="E40" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="4">
+      <c r="F40" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="4">
+      <c r="G40" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="4">
+      <c r="H40" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="4">
+      <c r="I40" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1383,10 +1431,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="4" t="s">
+      <c r="J43" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1430,28 +1478,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="4">
+      <c r="A45" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="4">
+      <c r="B45" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="4">
+      <c r="C45" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="4">
+      <c r="E45" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="4">
+      <c r="F45" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="4">
+      <c r="G45" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="4">
+      <c r="H45" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1476,28 +1524,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="4">
+      <c r="B47" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="4">
+      <c r="C47" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="4">
+      <c r="D47" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="4">
+      <c r="E47" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="4">
+      <c r="F47" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="4">
+      <c r="G47" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="4">
+      <c r="H47" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="4">
+      <c r="I47" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1643,10 +1691,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="4" t="s">
+      <c r="J52" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1690,28 +1738,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="4">
+      <c r="A54" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="4">
+      <c r="B54" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="4">
+      <c r="C54" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="4">
+      <c r="E54" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="4">
+      <c r="F54" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="4">
+      <c r="G54" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="4">
+      <c r="H54" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1736,28 +1784,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="4">
+      <c r="B56" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="4">
+      <c r="C56" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="4">
+      <c r="D56" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="4">
+      <c r="E56" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="4">
+      <c r="F56" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="4">
+      <c r="G56" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="4">
+      <c r="H56" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="4">
+      <c r="I56" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1874,10 +1922,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="4" t="s">
+      <c r="J60" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1921,28 +1969,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="4">
+      <c r="A62" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="4">
+      <c r="B62" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="4">
+      <c r="C62" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="4">
+      <c r="E62" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="4">
+      <c r="F62" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="4">
+      <c r="G62" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="4">
+      <c r="H62" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1967,28 +2015,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="4">
+      <c r="B64" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="4">
+      <c r="C64" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="4">
+      <c r="D64" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="4">
+      <c r="E64" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="4">
+      <c r="F64" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="4">
+      <c r="G64" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="4">
+      <c r="H64" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="4">
+      <c r="I64" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2076,10 +2124,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="4" t="s">
+      <c r="J67" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2123,28 +2171,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="4">
+      <c r="A69" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="4">
+      <c r="B69" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="4">
+      <c r="C69" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="4">
+      <c r="E69" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="4">
+      <c r="F69" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="4">
+      <c r="G69" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="4">
+      <c r="H69" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2169,28 +2217,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="4">
+      <c r="B71" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="4">
+      <c r="C71" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="4">
+      <c r="D71" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="4">
+      <c r="E71" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="4">
+      <c r="F71" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="4">
+      <c r="G71" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="4">
+      <c r="H71" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="4">
+      <c r="I71" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2307,10 +2355,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="4" t="s">
+      <c r="J75" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2354,28 +2402,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="4">
+      <c r="A77" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="4">
+      <c r="B77" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="4">
+      <c r="C77" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="4">
+      <c r="E77" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="4">
+      <c r="F77" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="4">
+      <c r="G77" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="4">
+      <c r="H77" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2400,28 +2448,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="4">
+      <c r="B79" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="4">
+      <c r="C79" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="4">
+      <c r="D79" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="4">
+      <c r="E79" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="4">
+      <c r="F79" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="4">
+      <c r="G79" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="4">
+      <c r="H79" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="4">
+      <c r="I79" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2567,10 +2615,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="4" t="s">
+      <c r="J84" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2614,28 +2662,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="4">
+      <c r="A86" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="4">
+      <c r="B86" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="4">
+      <c r="C86" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="4">
+      <c r="E86" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="4">
+      <c r="F86" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="4">
+      <c r="G86" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="4">
+      <c r="H86" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2660,28 +2708,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="4">
+      <c r="B88" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="4">
+      <c r="C88" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="4">
+      <c r="D88" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="4">
+      <c r="E88" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="4">
+      <c r="F88" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="4">
+      <c r="G88" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="4">
+      <c r="H88" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="4">
+      <c r="I88" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2769,10 +2817,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="4" t="s">
+      <c r="J91" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2816,28 +2864,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="4">
+      <c r="A93" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="4">
+      <c r="B93" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="4">
+      <c r="C93" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="4">
+      <c r="E93" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="4">
+      <c r="F93" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="4">
+      <c r="G93" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="4">
+      <c r="H93" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2862,28 +2910,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="4">
+      <c r="B95" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="4">
+      <c r="C95" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="4">
+      <c r="D95" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="4">
+      <c r="E95" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="4">
+      <c r="F95" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="4">
+      <c r="G95" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="4">
+      <c r="H95" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="4">
+      <c r="I95" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3000,10 +3048,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="4" t="s">
+      <c r="J99" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3047,28 +3095,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="4">
+      <c r="A101" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="4">
+      <c r="B101" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="4">
+      <c r="C101" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="4">
+      <c r="E101" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="4">
+      <c r="F101" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="4">
+      <c r="G101" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="4">
+      <c r="H101" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3093,28 +3141,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="4">
+      <c r="B103" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="4">
+      <c r="C103" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="4">
+      <c r="D103" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="4">
+      <c r="E103" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="4">
+      <c r="F103" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="4">
+      <c r="G103" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="4">
+      <c r="H103" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="4">
+      <c r="I103" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3260,10 +3308,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="4" t="s">
+      <c r="J108" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3307,28 +3355,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="4">
+      <c r="A110" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="4">
+      <c r="B110" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="4">
+      <c r="C110" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="4">
+      <c r="E110" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="4">
+      <c r="F110" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="4">
+      <c r="G110" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="4">
+      <c r="H110" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3353,28 +3401,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="4">
+      <c r="B112" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="4">
+      <c r="C112" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="4">
+      <c r="D112" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="4">
+      <c r="E112" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="4">
+      <c r="F112" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="4">
+      <c r="G112" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="4">
+      <c r="H112" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="4">
+      <c r="I112" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3462,10 +3510,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="4" t="s">
+      <c r="J115" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3509,28 +3557,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="4">
+      <c r="A117" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="4">
+      <c r="B117" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="4">
+      <c r="C117" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="4">
+      <c r="E117" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="4">
+      <c r="F117" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="4">
+      <c r="G117" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="4">
+      <c r="H117" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3555,28 +3603,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="4">
+      <c r="B119" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="4">
+      <c r="C119" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="4">
+      <c r="D119" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="4">
+      <c r="E119" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="4">
+      <c r="F119" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="4">
+      <c r="G119" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="4">
+      <c r="H119" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="4">
+      <c r="I119" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3635,10 +3683,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="4" t="s">
+      <c r="J121" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3682,28 +3730,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="4">
+      <c r="A123" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="4">
+      <c r="B123" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="4">
+      <c r="C123" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="4">
+      <c r="E123" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="4">
+      <c r="F123" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="4">
+      <c r="G123" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="4">
+      <c r="H123" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3728,28 +3776,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="4">
+      <c r="B125" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="4">
+      <c r="C125" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="4">
+      <c r="D125" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="4">
+      <c r="E125" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="4">
+      <c r="F125" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="4">
+      <c r="G125" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="4">
+      <c r="H125" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="4">
+      <c r="I125" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3895,10 +3943,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="4" t="s">
+      <c r="J130" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3942,28 +3990,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="4">
+      <c r="A132" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="4">
+      <c r="B132" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="4">
+      <c r="C132" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="4">
+      <c r="E132" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="4">
+      <c r="F132" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="4">
+      <c r="G132" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="4">
+      <c r="H132" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3988,28 +4036,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="4">
+      <c r="B134" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="4">
+      <c r="C134" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="4">
+      <c r="D134" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="4">
+      <c r="E134" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="4">
+      <c r="F134" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="4">
+      <c r="G134" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="4">
+      <c r="H134" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="4">
+      <c r="I134" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4097,10 +4145,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="4" t="s">
+      <c r="J137" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4144,28 +4192,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="4">
+      <c r="A139" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="4">
+      <c r="B139" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="4">
+      <c r="C139" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="4">
+      <c r="E139" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="4">
+      <c r="F139" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="4">
+      <c r="G139" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="4">
+      <c r="H139" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4190,28 +4238,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="4">
+      <c r="B141" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="4">
+      <c r="C141" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="4">
+      <c r="D141" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="4">
+      <c r="E141" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="4">
+      <c r="F141" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="4">
+      <c r="G141" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="4">
+      <c r="H141" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="4">
+      <c r="I141" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4357,10 +4405,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="4" t="s">
+      <c r="J146" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4404,28 +4452,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="4">
+      <c r="A148" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="4">
+      <c r="B148" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="4">
+      <c r="C148" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="4">
+      <c r="E148" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="4">
+      <c r="F148" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="4">
+      <c r="G148" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="4">
+      <c r="H148" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4450,28 +4498,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="4">
+      <c r="B150" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="4">
+      <c r="C150" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="4">
+      <c r="D150" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="4">
+      <c r="E150" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="4">
+      <c r="F150" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="4">
+      <c r="G150" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="4">
+      <c r="H150" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="4">
+      <c r="I150" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4559,10 +4607,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="4" t="s">
+      <c r="J153" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4606,28 +4654,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="4">
+      <c r="A155" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="4">
+      <c r="B155" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="4">
+      <c r="C155" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="4">
+      <c r="E155" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="4">
+      <c r="F155" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="4">
+      <c r="G155" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="4">
+      <c r="H155" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4652,28 +4700,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="4">
+      <c r="B157" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="4">
+      <c r="C157" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="4">
+      <c r="D157" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="4">
+      <c r="E157" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="4">
+      <c r="F157" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="4">
+      <c r="G157" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="4">
+      <c r="H157" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="4">
+      <c r="I157" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4819,10 +4867,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="4" t="s">
+      <c r="J162" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4866,28 +4914,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="4">
+      <c r="A164" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="4">
+      <c r="B164" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="4">
+      <c r="C164" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="4">
+      <c r="E164" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="4">
+      <c r="F164" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="4">
+      <c r="G164" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="4">
+      <c r="H164" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4912,28 +4960,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="4">
+      <c r="B166" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="4">
+      <c r="C166" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="4">
+      <c r="D166" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="4">
+      <c r="E166" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="4">
+      <c r="F166" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="4">
+      <c r="G166" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="4">
+      <c r="H166" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="4">
+      <c r="I166" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5050,10 +5098,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="4" t="s">
+      <c r="J170" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5097,28 +5145,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="4">
+      <c r="A172" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="4">
+      <c r="B172" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="4">
+      <c r="C172" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="4">
+      <c r="E172" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="4">
+      <c r="F172" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="4">
+      <c r="G172" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="4">
+      <c r="H172" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5143,28 +5191,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="4">
+      <c r="B174" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="4">
+      <c r="C174" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="4">
+      <c r="D174" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="4">
+      <c r="E174" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="4">
+      <c r="F174" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="4">
+      <c r="G174" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="4">
+      <c r="H174" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="4">
+      <c r="I174" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5310,10 +5358,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="4" t="s">
+      <c r="J179" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5357,28 +5405,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="4">
+      <c r="A181" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="4">
+      <c r="B181" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="4">
+      <c r="C181" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="4">
+      <c r="E181" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="4">
+      <c r="F181" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="4">
+      <c r="G181" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="4">
+      <c r="H181" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5403,28 +5451,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="4">
+      <c r="B183" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="4">
+      <c r="C183" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="4">
+      <c r="D183" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="4">
+      <c r="E183" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="4">
+      <c r="F183" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="4">
+      <c r="G183" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="4">
+      <c r="H183" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="4">
+      <c r="I183" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5541,10 +5589,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="4" t="s">
+      <c r="J187" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5588,28 +5636,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="4">
+      <c r="A189" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="4">
+      <c r="B189" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="4">
+      <c r="C189" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="4">
+      <c r="E189" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="4">
+      <c r="F189" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="4">
+      <c r="G189" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="4">
+      <c r="H189" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5634,28 +5682,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="4">
+      <c r="B191" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="4">
+      <c r="C191" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="4">
+      <c r="D191" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="4">
+      <c r="E191" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="4">
+      <c r="F191" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="4">
+      <c r="G191" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="4">
+      <c r="H191" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="4">
+      <c r="I191" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5714,10 +5762,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="4" t="s">
+      <c r="J193" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5761,28 +5809,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="4">
+      <c r="A195" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="4">
+      <c r="B195" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="4">
+      <c r="C195" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="4">
+      <c r="E195" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="4">
+      <c r="F195" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="4">
+      <c r="G195" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="4">
+      <c r="H195" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5807,28 +5855,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="4">
+      <c r="B197" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="4">
+      <c r="C197" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="4">
+      <c r="D197" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="4">
+      <c r="E197" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="4">
+      <c r="F197" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="4">
+      <c r="G197" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="4">
+      <c r="H197" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="4">
+      <c r="I197" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5974,10 +6022,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="4" t="s">
+      <c r="J202" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6021,28 +6069,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="4">
+      <c r="A204" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="4">
+      <c r="B204" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="4">
+      <c r="C204" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="4">
+      <c r="E204" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="4">
+      <c r="F204" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="4">
+      <c r="G204" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="4">
+      <c r="H204" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6067,28 +6115,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="4">
+      <c r="B206" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="4">
+      <c r="C206" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="4">
+      <c r="D206" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="4">
+      <c r="E206" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="4">
+      <c r="F206" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="4">
+      <c r="G206" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="4">
+      <c r="H206" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="4">
+      <c r="I206" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6176,10 +6224,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="4" t="s">
+      <c r="J209" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6223,28 +6271,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="4">
+      <c r="A211" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="4">
+      <c r="B211" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="4">
+      <c r="C211" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="4">
+      <c r="E211" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="4">
+      <c r="F211" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="4">
+      <c r="G211" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="4">
+      <c r="H211" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6269,28 +6317,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="4">
+      <c r="B213" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="4">
+      <c r="C213" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="4">
+      <c r="D213" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="4">
+      <c r="E213" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="4">
+      <c r="F213" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="4">
+      <c r="G213" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="4">
+      <c r="H213" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="4">
+      <c r="I213" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6407,10 +6455,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="4" t="s">
+      <c r="J217" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6454,28 +6502,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="4">
+      <c r="A219" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="4">
+      <c r="B219" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="4">
+      <c r="C219" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="4">
+      <c r="E219" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="4">
+      <c r="F219" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="4">
+      <c r="G219" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="4">
+      <c r="H219" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6500,28 +6548,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="4">
+      <c r="B221" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="4">
+      <c r="C221" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="4">
+      <c r="D221" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="4">
+      <c r="E221" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="4">
+      <c r="F221" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="4">
+      <c r="G221" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="4">
+      <c r="H221" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="4">
+      <c r="I221" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6580,10 +6628,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="4" t="s">
+      <c r="J223" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6627,28 +6675,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="4">
+      <c r="A225" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="4">
+      <c r="B225" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="4">
+      <c r="C225" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="4">
+      <c r="E225" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="4">
+      <c r="F225" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="4">
+      <c r="G225" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="4">
+      <c r="H225" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6673,28 +6721,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="4">
+      <c r="B227" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="4">
+      <c r="C227" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="4">
+      <c r="D227" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="4">
+      <c r="E227" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="4">
+      <c r="F227" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="4">
+      <c r="G227" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="4">
+      <c r="H227" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="4">
+      <c r="I227" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6782,10 +6830,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="4" t="s">
+      <c r="J230" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6829,28 +6877,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="4">
+      <c r="A232" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="4">
+      <c r="B232" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="4">
+      <c r="C232" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="4">
+      <c r="E232" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="4">
+      <c r="F232" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="4">
+      <c r="G232" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="4">
+      <c r="H232" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6875,28 +6923,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="4">
+      <c r="B234" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="4">
+      <c r="C234" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="4">
+      <c r="D234" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="4">
+      <c r="E234" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="4">
+      <c r="F234" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="4">
+      <c r="G234" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="4">
+      <c r="H234" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="4">
+      <c r="I234" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6984,10 +7032,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="4" t="s">
+      <c r="J237" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7031,28 +7079,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="4">
+      <c r="A239" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="4">
+      <c r="B239" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="4">
+      <c r="C239" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="4">
+      <c r="E239" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="4">
+      <c r="F239" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="4">
+      <c r="G239" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="4">
+      <c r="H239" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7077,28 +7125,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="4">
+      <c r="B241" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="4">
+      <c r="C241" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="4">
+      <c r="D241" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="4">
+      <c r="E241" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="4">
+      <c r="F241" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="4">
+      <c r="G241" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="4">
+      <c r="H241" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="4">
+      <c r="I241" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7157,10 +7205,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="4" t="s">
+      <c r="J243" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7204,28 +7252,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="4">
+      <c r="A245" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="4">
+      <c r="B245" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="4">
+      <c r="C245" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="4">
+      <c r="E245" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="4">
+      <c r="F245" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="4">
+      <c r="G245" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="4">
+      <c r="H245" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7250,28 +7298,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="4">
+      <c r="B247" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="4">
+      <c r="C247" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="4">
+      <c r="D247" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="4">
+      <c r="E247" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="4">
+      <c r="F247" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="4">
+      <c r="G247" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="4">
+      <c r="H247" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="4">
+      <c r="I247" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7359,10 +7407,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="4" t="s">
+      <c r="J250" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7406,28 +7454,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="4">
+      <c r="A252" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="4">
+      <c r="B252" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="4">
+      <c r="C252" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="4">
+      <c r="E252" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="4">
+      <c r="F252" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="4">
+      <c r="G252" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="4">
+      <c r="H252" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7452,28 +7500,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="4">
+      <c r="B254" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="4">
+      <c r="C254" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="4">
+      <c r="D254" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="4">
+      <c r="E254" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="4">
+      <c r="F254" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="4">
+      <c r="G254" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="4">
+      <c r="H254" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="4">
+      <c r="I254" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7532,10 +7580,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="4" t="s">
+      <c r="J256" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7579,28 +7627,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="4">
+      <c r="A258" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="4">
+      <c r="B258" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="4">
+      <c r="C258" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="4">
+      <c r="E258" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="4">
+      <c r="F258" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="4">
+      <c r="G258" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="4">
+      <c r="H258" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7625,28 +7673,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="4">
+      <c r="B260" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="4">
+      <c r="C260" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="4">
+      <c r="D260" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="4">
+      <c r="E260" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="4">
+      <c r="F260" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="4">
+      <c r="G260" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="4">
+      <c r="H260" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="4">
+      <c r="I260" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7705,10 +7753,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="4" t="s">
+      <c r="J262" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7752,28 +7800,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="4">
+      <c r="A264" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="4">
+      <c r="B264" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="4">
+      <c r="C264" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="4">
+      <c r="E264" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="4">
+      <c r="F264" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="4">
+      <c r="G264" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="4">
+      <c r="H264" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7798,28 +7846,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="4">
+      <c r="B266" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="4">
+      <c r="C266" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="4">
+      <c r="D266" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="4">
+      <c r="E266" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="4">
+      <c r="F266" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="4">
+      <c r="G266" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="4">
+      <c r="H266" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="4">
+      <c r="I266" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7907,10 +7955,10 @@
       <c r="I269">
         <f>((C269-C268)^2+(D269- D268)^2)^.5</f>
       </c>
-      <c r="J269" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K269" s="4" t="s">
+      <c r="J269" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K269" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L269" t="n">
@@ -7954,28 +8002,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="s" s="4">
+      <c r="A271" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B271" t="s" s="4">
+      <c r="B271" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C271" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D271" t="s" s="4">
+      <c r="C271" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D271" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E271" t="s" s="4">
+      <c r="E271" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F271" t="s" s="4">
+      <c r="F271" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G271" t="s" s="4">
+      <c r="G271" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H271" t="s" s="4">
+      <c r="H271" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8000,28 +8048,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="B273" t="s" s="4">
+      <c r="B273" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C273" t="s" s="4">
+      <c r="C273" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D273" t="s" s="4">
+      <c r="D273" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E273" t="s" s="4">
+      <c r="E273" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F273" t="s" s="4">
+      <c r="F273" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G273" t="s" s="4">
+      <c r="G273" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H273" t="s" s="4">
+      <c r="H273" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I273" t="s" s="4">
+      <c r="I273" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8080,10 +8128,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="4" t="s">
+      <c r="J275" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8127,28 +8175,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="4">
+      <c r="A277" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="4">
+      <c r="B277" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="4">
+      <c r="C277" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="4">
+      <c r="E277" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="4">
+      <c r="F277" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="4">
+      <c r="G277" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="4">
+      <c r="H277" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8173,28 +8221,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="4">
+      <c r="B279" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="4">
+      <c r="C279" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="4">
+      <c r="D279" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="4">
+      <c r="E279" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="4">
+      <c r="F279" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="4">
+      <c r="G279" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="4">
+      <c r="H279" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="4">
+      <c r="I279" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8340,10 +8388,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="4" t="s">
+      <c r="J284" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8387,28 +8435,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="4">
+      <c r="A286" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="4">
+      <c r="B286" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="4">
+      <c r="C286" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="4">
+      <c r="E286" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="4">
+      <c r="F286" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="4">
+      <c r="G286" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="4">
+      <c r="H286" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8433,28 +8481,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="4">
+      <c r="B288" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="4">
+      <c r="C288" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="4">
+      <c r="D288" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="4">
+      <c r="E288" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="4">
+      <c r="F288" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="4">
+      <c r="G288" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="4">
+      <c r="H288" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="4">
+      <c r="I288" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8513,10 +8561,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="4" t="s">
+      <c r="J290" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8560,28 +8608,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="4">
+      <c r="A292" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="4">
+      <c r="B292" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="4">
+      <c r="C292" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="4">
+      <c r="E292" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="4">
+      <c r="F292" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="4">
+      <c r="G292" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="4">
+      <c r="H292" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8606,28 +8654,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="4">
+      <c r="B294" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="4">
+      <c r="C294" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="4">
+      <c r="D294" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="4">
+      <c r="E294" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="4">
+      <c r="F294" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="4">
+      <c r="G294" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="4">
+      <c r="H294" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="4">
+      <c r="I294" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8686,10 +8734,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="4" t="s">
+      <c r="J296" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
@@ -8733,28 +8781,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="s" s="4">
+      <c r="A298" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B298" t="s" s="4">
+      <c r="B298" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C298" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D298" t="s" s="4">
+      <c r="C298" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E298" t="s" s="4">
+      <c r="E298" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F298" t="s" s="4">
+      <c r="F298" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G298" t="s" s="4">
+      <c r="G298" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H298" t="s" s="4">
+      <c r="H298" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8779,28 +8827,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="B300" t="s" s="4">
+      <c r="B300" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C300" t="s" s="4">
+      <c r="C300" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D300" t="s" s="4">
+      <c r="D300" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E300" t="s" s="4">
+      <c r="E300" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F300" t="s" s="4">
+      <c r="F300" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G300" t="s" s="4">
+      <c r="G300" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H300" t="s" s="4">
+      <c r="H300" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I300" t="s" s="4">
+      <c r="I300" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8859,10 +8907,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="4" t="s">
+      <c r="J302" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8906,28 +8954,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="4">
+      <c r="A304" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="4">
+      <c r="B304" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="4">
+      <c r="C304" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="4">
+      <c r="E304" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="4">
+      <c r="F304" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="4">
+      <c r="G304" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="4">
+      <c r="H304" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8952,28 +9000,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="4">
+      <c r="B306" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="4">
+      <c r="C306" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="4">
+      <c r="D306" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="4">
+      <c r="E306" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="4">
+      <c r="F306" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="4">
+      <c r="G306" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="4">
+      <c r="H306" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="4">
+      <c r="I306" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9032,10 +9080,10 @@
       <c r="I308">
         <f>((C308-C307)^2+(D308- D307)^2)^.5</f>
       </c>
-      <c r="J308" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K308" s="4" t="s">
+      <c r="J308" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K308" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L308" t="n">
@@ -9079,28 +9127,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s" s="4">
+      <c r="A310" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B310" t="s" s="4">
+      <c r="B310" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C310" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D310" t="s" s="4">
+      <c r="C310" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E310" t="s" s="4">
+      <c r="E310" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F310" t="s" s="4">
+      <c r="F310" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G310" t="s" s="4">
+      <c r="G310" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H310" t="s" s="4">
+      <c r="H310" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9125,28 +9173,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="B312" t="s" s="4">
+      <c r="B312" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C312" t="s" s="4">
+      <c r="C312" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D312" t="s" s="4">
+      <c r="D312" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E312" t="s" s="4">
+      <c r="E312" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F312" t="s" s="4">
+      <c r="F312" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G312" t="s" s="4">
+      <c r="G312" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H312" t="s" s="4">
+      <c r="H312" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I312" t="s" s="4">
+      <c r="I312" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9205,10 +9253,10 @@
       <c r="I314">
         <f>((C314-C313)^2+(D314- D313)^2)^.5</f>
       </c>
-      <c r="J314" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K314" s="4" t="s">
+      <c r="J314" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K314" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L314" t="n">
@@ -9252,28 +9300,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="s" s="4">
+      <c r="A316" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B316" t="s" s="4">
+      <c r="B316" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C316" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D316" t="s" s="4">
+      <c r="C316" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D316" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E316" t="s" s="4">
+      <c r="E316" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F316" t="s" s="4">
+      <c r="F316" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G316" t="s" s="4">
+      <c r="G316" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H316" t="s" s="4">
+      <c r="H316" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9298,28 +9346,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="B318" t="s" s="4">
+      <c r="B318" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C318" t="s" s="4">
+      <c r="C318" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D318" t="s" s="4">
+      <c r="D318" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E318" t="s" s="4">
+      <c r="E318" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F318" t="s" s="4">
+      <c r="F318" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G318" t="s" s="4">
+      <c r="G318" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H318" t="s" s="4">
+      <c r="H318" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I318" t="s" s="4">
+      <c r="I318" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9378,10 +9426,10 @@
       <c r="I320">
         <f>((C320-C319)^2+(D320- D319)^2)^.5</f>
       </c>
-      <c r="J320" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K320" s="4" t="s">
+      <c r="J320" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K320" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L320" t="n">
@@ -9425,28 +9473,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="s" s="4">
+      <c r="A322" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B322" t="s" s="4">
+      <c r="B322" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C322" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D322" t="s" s="4">
+      <c r="C322" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D322" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E322" t="s" s="4">
+      <c r="E322" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F322" t="s" s="4">
+      <c r="F322" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G322" t="s" s="4">
+      <c r="G322" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H322" t="s" s="4">
+      <c r="H322" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9471,28 +9519,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="B324" t="s" s="4">
+      <c r="B324" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C324" t="s" s="4">
+      <c r="C324" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D324" t="s" s="4">
+      <c r="D324" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E324" t="s" s="4">
+      <c r="E324" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F324" t="s" s="4">
+      <c r="F324" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G324" t="s" s="4">
+      <c r="G324" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H324" t="s" s="4">
+      <c r="H324" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I324" t="s" s="4">
+      <c r="I324" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9551,10 +9599,10 @@
       <c r="I326">
         <f>((C326-C325)^2+(D326- D325)^2)^.5</f>
       </c>
-      <c r="J326" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K326" s="4" t="s">
+      <c r="J326" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K326" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L326" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c101_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c101_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9912" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12390" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -421,10 +439,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="12" t="s">
+      <c r="J8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -468,28 +486,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="12">
+      <c r="A10" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="12">
+      <c r="B10" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="12">
+      <c r="C10" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="12">
+      <c r="E10" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="12">
+      <c r="F10" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="12">
+      <c r="G10" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="12">
+      <c r="H10" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -514,28 +532,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="12">
+      <c r="B12" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="12">
+      <c r="C12" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="12">
+      <c r="D12" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="12">
+      <c r="E12" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="12">
+      <c r="F12" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="12">
+      <c r="G12" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="12">
+      <c r="H12" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="12">
+      <c r="I12" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -623,10 +641,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="12" t="s">
+      <c r="J15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -670,28 +688,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="12">
+      <c r="A17" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="12">
+      <c r="B17" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="12">
+      <c r="C17" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="12">
+      <c r="E17" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="12">
+      <c r="F17" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="12">
+      <c r="G17" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="12">
+      <c r="H17" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -716,28 +734,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="12">
+      <c r="B19" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="12">
+      <c r="C19" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="12">
+      <c r="D19" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="12">
+      <c r="E19" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="12">
+      <c r="F19" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="12">
+      <c r="G19" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="12">
+      <c r="H19" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="12">
+      <c r="I19" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -825,10 +843,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="12" t="s">
+      <c r="J22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -872,28 +890,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="12">
+      <c r="A24" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="12">
+      <c r="B24" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="12">
+      <c r="C24" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="12">
+      <c r="E24" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="12">
+      <c r="F24" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="12">
+      <c r="G24" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="12">
+      <c r="H24" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -918,28 +936,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="12">
+      <c r="B26" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="12">
+      <c r="C26" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="12">
+      <c r="D26" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="12">
+      <c r="E26" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="12">
+      <c r="F26" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="12">
+      <c r="G26" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="12">
+      <c r="H26" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="12">
+      <c r="I26" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1027,10 +1045,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="12" t="s">
+      <c r="J29" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1074,28 +1092,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="12">
+      <c r="A31" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="12">
+      <c r="B31" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="12">
+      <c r="C31" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="12">
+      <c r="E31" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="12">
+      <c r="F31" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="12">
+      <c r="G31" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="12">
+      <c r="H31" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1120,28 +1138,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="12">
+      <c r="B33" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="12">
+      <c r="C33" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="12">
+      <c r="D33" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="12">
+      <c r="E33" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="12">
+      <c r="F33" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="12">
+      <c r="G33" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="12">
+      <c r="H33" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="12">
+      <c r="I33" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1229,10 +1247,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="12" t="s">
+      <c r="J36" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1276,28 +1294,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="12">
+      <c r="A38" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="12">
+      <c r="B38" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="12">
+      <c r="C38" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="12">
+      <c r="E38" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="12">
+      <c r="F38" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="12">
+      <c r="G38" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="12">
+      <c r="H38" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1322,28 +1340,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="12">
+      <c r="B40" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="12">
+      <c r="C40" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="12">
+      <c r="D40" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="12">
+      <c r="E40" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="12">
+      <c r="F40" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="12">
+      <c r="G40" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="12">
+      <c r="H40" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="12">
+      <c r="I40" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1431,10 +1449,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="12" t="s">
+      <c r="J43" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1478,28 +1496,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="12">
+      <c r="A45" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="12">
+      <c r="B45" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="12">
+      <c r="C45" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="12">
+      <c r="E45" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="12">
+      <c r="F45" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="12">
+      <c r="G45" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="12">
+      <c r="H45" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1524,28 +1542,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="12">
+      <c r="B47" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="12">
+      <c r="C47" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="12">
+      <c r="D47" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="12">
+      <c r="E47" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="12">
+      <c r="F47" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="12">
+      <c r="G47" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="12">
+      <c r="H47" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="12">
+      <c r="I47" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1691,10 +1709,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="12" t="s">
+      <c r="J52" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1738,28 +1756,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="12">
+      <c r="A54" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="12">
+      <c r="B54" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="12">
+      <c r="C54" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="12">
+      <c r="E54" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="12">
+      <c r="F54" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="12">
+      <c r="G54" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="12">
+      <c r="H54" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1784,28 +1802,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="12">
+      <c r="B56" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="12">
+      <c r="C56" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="12">
+      <c r="D56" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="12">
+      <c r="E56" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="12">
+      <c r="F56" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="12">
+      <c r="G56" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="12">
+      <c r="H56" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="12">
+      <c r="I56" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1922,10 +1940,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="12" t="s">
+      <c r="J60" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1969,28 +1987,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="12">
+      <c r="A62" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="12">
+      <c r="B62" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="12">
+      <c r="C62" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="12">
+      <c r="E62" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="12">
+      <c r="F62" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="12">
+      <c r="G62" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="12">
+      <c r="H62" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2015,28 +2033,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="12">
+      <c r="B64" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="12">
+      <c r="C64" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="12">
+      <c r="D64" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="12">
+      <c r="E64" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="12">
+      <c r="F64" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="12">
+      <c r="G64" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="12">
+      <c r="H64" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="12">
+      <c r="I64" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2124,10 +2142,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="12" t="s">
+      <c r="J67" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2171,28 +2189,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="12">
+      <c r="A69" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="12">
+      <c r="B69" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="12">
+      <c r="C69" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="12">
+      <c r="E69" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="12">
+      <c r="F69" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="12">
+      <c r="G69" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="12">
+      <c r="H69" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2217,28 +2235,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="12">
+      <c r="B71" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="12">
+      <c r="C71" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="12">
+      <c r="D71" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="12">
+      <c r="E71" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="12">
+      <c r="F71" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="12">
+      <c r="G71" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="12">
+      <c r="H71" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="12">
+      <c r="I71" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2355,10 +2373,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="12" t="s">
+      <c r="J75" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2402,28 +2420,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="12">
+      <c r="A77" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="12">
+      <c r="B77" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="12">
+      <c r="C77" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="12">
+      <c r="E77" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="12">
+      <c r="F77" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="12">
+      <c r="G77" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="12">
+      <c r="H77" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2448,28 +2466,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="12">
+      <c r="B79" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="12">
+      <c r="C79" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="12">
+      <c r="D79" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="12">
+      <c r="E79" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="12">
+      <c r="F79" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="12">
+      <c r="G79" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="12">
+      <c r="H79" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="12">
+      <c r="I79" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2615,10 +2633,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="12" t="s">
+      <c r="J84" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2662,28 +2680,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="12">
+      <c r="A86" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="12">
+      <c r="B86" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="12">
+      <c r="C86" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="12">
+      <c r="E86" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="12">
+      <c r="F86" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="12">
+      <c r="G86" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="12">
+      <c r="H86" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2708,28 +2726,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="12">
+      <c r="B88" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="12">
+      <c r="C88" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="12">
+      <c r="D88" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="12">
+      <c r="E88" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="12">
+      <c r="F88" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="12">
+      <c r="G88" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="12">
+      <c r="H88" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="12">
+      <c r="I88" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2817,10 +2835,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="12" t="s">
+      <c r="J91" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2864,28 +2882,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="12">
+      <c r="A93" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="12">
+      <c r="B93" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="12">
+      <c r="C93" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="12">
+      <c r="E93" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="12">
+      <c r="F93" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="12">
+      <c r="G93" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="12">
+      <c r="H93" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2910,28 +2928,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="12">
+      <c r="B95" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="12">
+      <c r="C95" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="12">
+      <c r="D95" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="12">
+      <c r="E95" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="12">
+      <c r="F95" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="12">
+      <c r="G95" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="12">
+      <c r="H95" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="12">
+      <c r="I95" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3048,10 +3066,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="12" t="s">
+      <c r="J99" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3095,28 +3113,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="12">
+      <c r="A101" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="12">
+      <c r="B101" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="12">
+      <c r="C101" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="12">
+      <c r="E101" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="12">
+      <c r="F101" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="12">
+      <c r="G101" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="12">
+      <c r="H101" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3141,28 +3159,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="12">
+      <c r="B103" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="12">
+      <c r="C103" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="12">
+      <c r="D103" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="12">
+      <c r="E103" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="12">
+      <c r="F103" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="12">
+      <c r="G103" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="12">
+      <c r="H103" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="12">
+      <c r="I103" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3308,10 +3326,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="12" t="s">
+      <c r="J108" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3355,28 +3373,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="12">
+      <c r="A110" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="12">
+      <c r="B110" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="12">
+      <c r="C110" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="12">
+      <c r="E110" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="12">
+      <c r="F110" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="12">
+      <c r="G110" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="12">
+      <c r="H110" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3401,28 +3419,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="12">
+      <c r="B112" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="12">
+      <c r="C112" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="12">
+      <c r="D112" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="12">
+      <c r="E112" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="12">
+      <c r="F112" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="12">
+      <c r="G112" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="12">
+      <c r="H112" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="12">
+      <c r="I112" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3510,10 +3528,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="12" t="s">
+      <c r="J115" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3557,28 +3575,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="12">
+      <c r="A117" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="12">
+      <c r="B117" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="12">
+      <c r="C117" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="12">
+      <c r="E117" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="12">
+      <c r="F117" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="12">
+      <c r="G117" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="12">
+      <c r="H117" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3603,28 +3621,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="12">
+      <c r="B119" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="12">
+      <c r="C119" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="12">
+      <c r="D119" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="12">
+      <c r="E119" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="12">
+      <c r="F119" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="12">
+      <c r="G119" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="12">
+      <c r="H119" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="12">
+      <c r="I119" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3683,10 +3701,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="12" t="s">
+      <c r="J121" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3730,28 +3748,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="12">
+      <c r="A123" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="12">
+      <c r="B123" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="12">
+      <c r="C123" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="12">
+      <c r="E123" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="12">
+      <c r="F123" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="12">
+      <c r="G123" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="12">
+      <c r="H123" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3776,28 +3794,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="12">
+      <c r="B125" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="12">
+      <c r="C125" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="12">
+      <c r="D125" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="12">
+      <c r="E125" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="12">
+      <c r="F125" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="12">
+      <c r="G125" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="12">
+      <c r="H125" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="12">
+      <c r="I125" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3943,10 +3961,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="12" t="s">
+      <c r="J130" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3990,28 +4008,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="12">
+      <c r="A132" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="12">
+      <c r="B132" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="12">
+      <c r="C132" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="12">
+      <c r="E132" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="12">
+      <c r="F132" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="12">
+      <c r="G132" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="12">
+      <c r="H132" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4036,28 +4054,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="12">
+      <c r="B134" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="12">
+      <c r="C134" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="12">
+      <c r="D134" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="12">
+      <c r="E134" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="12">
+      <c r="F134" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="12">
+      <c r="G134" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="12">
+      <c r="H134" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="12">
+      <c r="I134" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4145,10 +4163,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="12" t="s">
+      <c r="J137" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4192,28 +4210,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="12">
+      <c r="A139" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="12">
+      <c r="B139" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="12">
+      <c r="C139" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="12">
+      <c r="E139" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="12">
+      <c r="F139" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="12">
+      <c r="G139" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="12">
+      <c r="H139" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4238,28 +4256,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="12">
+      <c r="B141" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="12">
+      <c r="C141" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="12">
+      <c r="D141" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="12">
+      <c r="E141" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="12">
+      <c r="F141" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="12">
+      <c r="G141" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="12">
+      <c r="H141" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="12">
+      <c r="I141" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4405,10 +4423,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="12" t="s">
+      <c r="J146" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4452,28 +4470,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="12">
+      <c r="A148" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="12">
+      <c r="B148" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="12">
+      <c r="C148" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="12">
+      <c r="E148" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="12">
+      <c r="F148" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="12">
+      <c r="G148" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="12">
+      <c r="H148" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4498,28 +4516,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="12">
+      <c r="B150" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="12">
+      <c r="C150" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="12">
+      <c r="D150" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="12">
+      <c r="E150" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="12">
+      <c r="F150" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="12">
+      <c r="G150" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="12">
+      <c r="H150" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="12">
+      <c r="I150" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4607,10 +4625,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="12" t="s">
+      <c r="J153" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4654,28 +4672,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="12">
+      <c r="A155" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="12">
+      <c r="B155" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="12">
+      <c r="C155" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="12">
+      <c r="E155" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="12">
+      <c r="F155" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="12">
+      <c r="G155" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="12">
+      <c r="H155" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4700,28 +4718,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="12">
+      <c r="B157" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="12">
+      <c r="C157" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="12">
+      <c r="D157" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="12">
+      <c r="E157" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="12">
+      <c r="F157" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="12">
+      <c r="G157" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="12">
+      <c r="H157" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="12">
+      <c r="I157" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4867,10 +4885,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="12" t="s">
+      <c r="J162" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4914,28 +4932,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="12">
+      <c r="A164" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="12">
+      <c r="B164" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="12">
+      <c r="C164" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="12">
+      <c r="E164" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="12">
+      <c r="F164" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="12">
+      <c r="G164" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="12">
+      <c r="H164" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4960,28 +4978,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="12">
+      <c r="B166" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="12">
+      <c r="C166" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="12">
+      <c r="D166" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="12">
+      <c r="E166" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="12">
+      <c r="F166" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="12">
+      <c r="G166" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="12">
+      <c r="H166" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="12">
+      <c r="I166" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5098,10 +5116,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="12" t="s">
+      <c r="J170" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5145,28 +5163,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="12">
+      <c r="A172" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="12">
+      <c r="B172" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="12">
+      <c r="C172" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="12">
+      <c r="E172" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="12">
+      <c r="F172" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="12">
+      <c r="G172" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="12">
+      <c r="H172" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5191,28 +5209,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="12">
+      <c r="B174" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="12">
+      <c r="C174" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="12">
+      <c r="D174" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="12">
+      <c r="E174" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="12">
+      <c r="F174" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="12">
+      <c r="G174" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="12">
+      <c r="H174" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="12">
+      <c r="I174" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5358,10 +5376,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="12" t="s">
+      <c r="J179" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5405,28 +5423,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="12">
+      <c r="A181" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="12">
+      <c r="B181" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="12">
+      <c r="C181" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="12">
+      <c r="E181" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="12">
+      <c r="F181" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="12">
+      <c r="G181" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="12">
+      <c r="H181" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5451,28 +5469,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="12">
+      <c r="B183" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="12">
+      <c r="C183" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="12">
+      <c r="D183" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="12">
+      <c r="E183" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="12">
+      <c r="F183" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="12">
+      <c r="G183" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="12">
+      <c r="H183" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="12">
+      <c r="I183" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5589,10 +5607,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="12" t="s">
+      <c r="J187" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5636,28 +5654,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="12">
+      <c r="A189" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="12">
+      <c r="B189" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="12">
+      <c r="C189" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="12">
+      <c r="E189" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="12">
+      <c r="F189" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="12">
+      <c r="G189" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="12">
+      <c r="H189" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5682,28 +5700,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="12">
+      <c r="B191" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="12">
+      <c r="C191" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="12">
+      <c r="D191" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="12">
+      <c r="E191" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="12">
+      <c r="F191" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="12">
+      <c r="G191" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="12">
+      <c r="H191" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="12">
+      <c r="I191" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5762,10 +5780,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="12" t="s">
+      <c r="J193" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5809,28 +5827,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="12">
+      <c r="A195" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="12">
+      <c r="B195" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="12">
+      <c r="C195" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="12">
+      <c r="E195" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="12">
+      <c r="F195" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="12">
+      <c r="G195" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="12">
+      <c r="H195" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5855,28 +5873,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="12">
+      <c r="B197" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="12">
+      <c r="C197" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="12">
+      <c r="D197" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="12">
+      <c r="E197" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="12">
+      <c r="F197" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="12">
+      <c r="G197" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="12">
+      <c r="H197" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="12">
+      <c r="I197" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6022,10 +6040,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="12" t="s">
+      <c r="J202" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6069,28 +6087,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="12">
+      <c r="A204" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="12">
+      <c r="B204" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="12">
+      <c r="C204" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="12">
+      <c r="E204" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="12">
+      <c r="F204" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="12">
+      <c r="G204" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="12">
+      <c r="H204" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6115,28 +6133,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="12">
+      <c r="B206" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="12">
+      <c r="C206" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="12">
+      <c r="D206" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="12">
+      <c r="E206" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="12">
+      <c r="F206" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="12">
+      <c r="G206" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="12">
+      <c r="H206" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="12">
+      <c r="I206" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6224,10 +6242,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="12" t="s">
+      <c r="J209" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6271,28 +6289,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="12">
+      <c r="A211" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="12">
+      <c r="B211" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="12">
+      <c r="C211" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="12">
+      <c r="E211" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="12">
+      <c r="F211" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="12">
+      <c r="G211" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="12">
+      <c r="H211" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6317,28 +6335,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="12">
+      <c r="B213" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="12">
+      <c r="C213" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="12">
+      <c r="D213" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="12">
+      <c r="E213" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="12">
+      <c r="F213" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="12">
+      <c r="G213" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="12">
+      <c r="H213" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="12">
+      <c r="I213" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6455,10 +6473,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="12" t="s">
+      <c r="J217" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6502,28 +6520,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="12">
+      <c r="A219" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="12">
+      <c r="B219" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="12">
+      <c r="C219" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="12">
+      <c r="E219" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="12">
+      <c r="F219" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="12">
+      <c r="G219" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="12">
+      <c r="H219" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6548,28 +6566,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="12">
+      <c r="B221" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="12">
+      <c r="C221" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="12">
+      <c r="D221" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="12">
+      <c r="E221" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="12">
+      <c r="F221" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="12">
+      <c r="G221" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="12">
+      <c r="H221" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="12">
+      <c r="I221" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6628,10 +6646,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="12" t="s">
+      <c r="J223" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6675,28 +6693,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="12">
+      <c r="A225" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="12">
+      <c r="B225" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="12">
+      <c r="C225" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="12">
+      <c r="E225" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="12">
+      <c r="F225" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="12">
+      <c r="G225" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="12">
+      <c r="H225" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6721,28 +6739,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="12">
+      <c r="B227" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="12">
+      <c r="C227" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="12">
+      <c r="D227" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="12">
+      <c r="E227" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="12">
+      <c r="F227" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="12">
+      <c r="G227" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="12">
+      <c r="H227" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="12">
+      <c r="I227" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6830,10 +6848,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="12" t="s">
+      <c r="J230" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6877,28 +6895,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="12">
+      <c r="A232" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="12">
+      <c r="B232" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="12">
+      <c r="C232" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="12">
+      <c r="E232" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="12">
+      <c r="F232" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="12">
+      <c r="G232" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="12">
+      <c r="H232" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6923,28 +6941,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="12">
+      <c r="B234" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="12">
+      <c r="C234" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="12">
+      <c r="D234" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="12">
+      <c r="E234" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="12">
+      <c r="F234" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="12">
+      <c r="G234" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="12">
+      <c r="H234" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="12">
+      <c r="I234" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7032,10 +7050,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="12" t="s">
+      <c r="J237" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7079,28 +7097,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="12">
+      <c r="A239" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="12">
+      <c r="B239" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="12">
+      <c r="C239" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="12">
+      <c r="E239" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="12">
+      <c r="F239" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="12">
+      <c r="G239" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="12">
+      <c r="H239" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7125,28 +7143,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="12">
+      <c r="B241" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="12">
+      <c r="C241" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="12">
+      <c r="D241" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="12">
+      <c r="E241" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="12">
+      <c r="F241" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="12">
+      <c r="G241" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="12">
+      <c r="H241" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="12">
+      <c r="I241" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7205,10 +7223,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="12" t="s">
+      <c r="J243" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7252,28 +7270,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="12">
+      <c r="A245" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="12">
+      <c r="B245" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="12">
+      <c r="C245" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="12">
+      <c r="E245" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="12">
+      <c r="F245" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="12">
+      <c r="G245" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="12">
+      <c r="H245" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7298,28 +7316,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="12">
+      <c r="B247" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="12">
+      <c r="C247" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="12">
+      <c r="D247" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="12">
+      <c r="E247" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="12">
+      <c r="F247" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="12">
+      <c r="G247" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="12">
+      <c r="H247" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="12">
+      <c r="I247" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7407,10 +7425,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="12" t="s">
+      <c r="J250" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7454,28 +7472,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="12">
+      <c r="A252" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="12">
+      <c r="B252" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="12">
+      <c r="C252" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="12">
+      <c r="E252" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="12">
+      <c r="F252" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="12">
+      <c r="G252" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="12">
+      <c r="H252" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7500,28 +7518,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="12">
+      <c r="B254" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="12">
+      <c r="C254" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="12">
+      <c r="D254" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="12">
+      <c r="E254" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="12">
+      <c r="F254" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="12">
+      <c r="G254" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="12">
+      <c r="H254" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="12">
+      <c r="I254" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7580,10 +7598,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="12" t="s">
+      <c r="J256" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7627,28 +7645,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="12">
+      <c r="A258" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="12">
+      <c r="B258" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="12">
+      <c r="C258" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="12">
+      <c r="E258" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="12">
+      <c r="F258" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="12">
+      <c r="G258" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="12">
+      <c r="H258" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7673,28 +7691,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="12">
+      <c r="B260" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="12">
+      <c r="C260" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="12">
+      <c r="D260" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="12">
+      <c r="E260" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="12">
+      <c r="F260" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="12">
+      <c r="G260" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="12">
+      <c r="H260" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="12">
+      <c r="I260" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7753,10 +7771,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="12" t="s">
+      <c r="J262" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7800,28 +7818,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="12">
+      <c r="A264" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="12">
+      <c r="B264" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="12">
+      <c r="C264" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="12">
+      <c r="E264" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="12">
+      <c r="F264" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="12">
+      <c r="G264" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="12">
+      <c r="H264" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7846,28 +7864,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="12">
+      <c r="B266" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="12">
+      <c r="C266" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="12">
+      <c r="D266" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="12">
+      <c r="E266" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="12">
+      <c r="F266" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="12">
+      <c r="G266" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="12">
+      <c r="H266" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="12">
+      <c r="I266" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7955,10 +7973,10 @@
       <c r="I269">
         <f>((C269-C268)^2+(D269- D268)^2)^.5</f>
       </c>
-      <c r="J269" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K269" s="12" t="s">
+      <c r="J269" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K269" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L269" t="n">
@@ -8002,28 +8020,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="s" s="12">
+      <c r="A271" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B271" t="s" s="12">
+      <c r="B271" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C271" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D271" t="s" s="12">
+      <c r="C271" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D271" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E271" t="s" s="12">
+      <c r="E271" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F271" t="s" s="12">
+      <c r="F271" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G271" t="s" s="12">
+      <c r="G271" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H271" t="s" s="12">
+      <c r="H271" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8048,28 +8066,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="B273" t="s" s="12">
+      <c r="B273" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C273" t="s" s="12">
+      <c r="C273" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D273" t="s" s="12">
+      <c r="D273" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E273" t="s" s="12">
+      <c r="E273" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F273" t="s" s="12">
+      <c r="F273" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G273" t="s" s="12">
+      <c r="G273" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H273" t="s" s="12">
+      <c r="H273" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I273" t="s" s="12">
+      <c r="I273" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8128,10 +8146,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="12" t="s">
+      <c r="J275" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8175,28 +8193,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="12">
+      <c r="A277" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="12">
+      <c r="B277" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="12">
+      <c r="C277" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="12">
+      <c r="E277" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="12">
+      <c r="F277" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="12">
+      <c r="G277" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="12">
+      <c r="H277" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8221,28 +8239,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="12">
+      <c r="B279" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="12">
+      <c r="C279" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="12">
+      <c r="D279" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="12">
+      <c r="E279" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="12">
+      <c r="F279" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="12">
+      <c r="G279" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="12">
+      <c r="H279" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="12">
+      <c r="I279" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8388,10 +8406,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="12" t="s">
+      <c r="J284" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8435,28 +8453,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="12">
+      <c r="A286" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="12">
+      <c r="B286" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="12">
+      <c r="C286" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="12">
+      <c r="E286" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="12">
+      <c r="F286" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="12">
+      <c r="G286" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="12">
+      <c r="H286" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8481,28 +8499,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="12">
+      <c r="B288" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="12">
+      <c r="C288" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="12">
+      <c r="D288" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="12">
+      <c r="E288" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="12">
+      <c r="F288" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="12">
+      <c r="G288" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="12">
+      <c r="H288" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="12">
+      <c r="I288" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8561,10 +8579,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="12" t="s">
+      <c r="J290" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8608,28 +8626,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="12">
+      <c r="A292" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="12">
+      <c r="B292" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="12">
+      <c r="C292" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="12">
+      <c r="E292" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="12">
+      <c r="F292" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="12">
+      <c r="G292" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="12">
+      <c r="H292" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8654,28 +8672,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="12">
+      <c r="B294" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="12">
+      <c r="C294" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="12">
+      <c r="D294" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="12">
+      <c r="E294" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="12">
+      <c r="F294" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="12">
+      <c r="G294" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="12">
+      <c r="H294" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="12">
+      <c r="I294" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8734,10 +8752,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="12" t="s">
+      <c r="J296" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
@@ -8781,28 +8799,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="s" s="12">
+      <c r="A298" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B298" t="s" s="12">
+      <c r="B298" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C298" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D298" t="s" s="12">
+      <c r="C298" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E298" t="s" s="12">
+      <c r="E298" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F298" t="s" s="12">
+      <c r="F298" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G298" t="s" s="12">
+      <c r="G298" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H298" t="s" s="12">
+      <c r="H298" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8827,28 +8845,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="B300" t="s" s="12">
+      <c r="B300" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C300" t="s" s="12">
+      <c r="C300" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D300" t="s" s="12">
+      <c r="D300" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E300" t="s" s="12">
+      <c r="E300" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F300" t="s" s="12">
+      <c r="F300" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G300" t="s" s="12">
+      <c r="G300" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H300" t="s" s="12">
+      <c r="H300" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I300" t="s" s="12">
+      <c r="I300" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8907,10 +8925,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="12" t="s">
+      <c r="J302" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8954,28 +8972,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="12">
+      <c r="A304" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="12">
+      <c r="B304" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="12">
+      <c r="C304" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="12">
+      <c r="E304" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="12">
+      <c r="F304" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="12">
+      <c r="G304" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="12">
+      <c r="H304" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9000,28 +9018,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="12">
+      <c r="B306" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="12">
+      <c r="C306" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="12">
+      <c r="D306" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="12">
+      <c r="E306" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="12">
+      <c r="F306" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="12">
+      <c r="G306" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="12">
+      <c r="H306" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="12">
+      <c r="I306" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9080,10 +9098,10 @@
       <c r="I308">
         <f>((C308-C307)^2+(D308- D307)^2)^.5</f>
       </c>
-      <c r="J308" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K308" s="12" t="s">
+      <c r="J308" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K308" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L308" t="n">
@@ -9127,28 +9145,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s" s="12">
+      <c r="A310" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B310" t="s" s="12">
+      <c r="B310" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C310" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D310" t="s" s="12">
+      <c r="C310" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E310" t="s" s="12">
+      <c r="E310" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F310" t="s" s="12">
+      <c r="F310" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G310" t="s" s="12">
+      <c r="G310" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H310" t="s" s="12">
+      <c r="H310" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9173,28 +9191,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="B312" t="s" s="12">
+      <c r="B312" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C312" t="s" s="12">
+      <c r="C312" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D312" t="s" s="12">
+      <c r="D312" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E312" t="s" s="12">
+      <c r="E312" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F312" t="s" s="12">
+      <c r="F312" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G312" t="s" s="12">
+      <c r="G312" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H312" t="s" s="12">
+      <c r="H312" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I312" t="s" s="12">
+      <c r="I312" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9253,10 +9271,10 @@
       <c r="I314">
         <f>((C314-C313)^2+(D314- D313)^2)^.5</f>
       </c>
-      <c r="J314" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K314" s="12" t="s">
+      <c r="J314" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K314" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L314" t="n">
@@ -9300,28 +9318,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="s" s="12">
+      <c r="A316" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B316" t="s" s="12">
+      <c r="B316" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C316" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D316" t="s" s="12">
+      <c r="C316" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D316" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E316" t="s" s="12">
+      <c r="E316" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F316" t="s" s="12">
+      <c r="F316" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G316" t="s" s="12">
+      <c r="G316" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H316" t="s" s="12">
+      <c r="H316" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9346,28 +9364,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="B318" t="s" s="12">
+      <c r="B318" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C318" t="s" s="12">
+      <c r="C318" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D318" t="s" s="12">
+      <c r="D318" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E318" t="s" s="12">
+      <c r="E318" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F318" t="s" s="12">
+      <c r="F318" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G318" t="s" s="12">
+      <c r="G318" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H318" t="s" s="12">
+      <c r="H318" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I318" t="s" s="12">
+      <c r="I318" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9426,10 +9444,10 @@
       <c r="I320">
         <f>((C320-C319)^2+(D320- D319)^2)^.5</f>
       </c>
-      <c r="J320" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K320" s="12" t="s">
+      <c r="J320" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K320" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L320" t="n">
@@ -9473,28 +9491,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="s" s="12">
+      <c r="A322" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B322" t="s" s="12">
+      <c r="B322" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C322" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D322" t="s" s="12">
+      <c r="C322" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D322" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E322" t="s" s="12">
+      <c r="E322" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F322" t="s" s="12">
+      <c r="F322" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G322" t="s" s="12">
+      <c r="G322" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H322" t="s" s="12">
+      <c r="H322" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9519,28 +9537,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="B324" t="s" s="12">
+      <c r="B324" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C324" t="s" s="12">
+      <c r="C324" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D324" t="s" s="12">
+      <c r="D324" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E324" t="s" s="12">
+      <c r="E324" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F324" t="s" s="12">
+      <c r="F324" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G324" t="s" s="12">
+      <c r="G324" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H324" t="s" s="12">
+      <c r="H324" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I324" t="s" s="12">
+      <c r="I324" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9599,10 +9617,10 @@
       <c r="I326">
         <f>((C326-C325)^2+(D326- D325)^2)^.5</f>
       </c>
-      <c r="J326" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K326" s="12" t="s">
+      <c r="J326" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K326" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L326" t="n">
